--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/20/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.277599999999999</v>
+        <v>-7.2642</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.31619999999999</v>
+        <v>-22.2179</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.0881</v>
+        <v>16.0312</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.39350000000001</v>
+        <v>17.39160000000001</v>
       </c>
     </row>
     <row r="13">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.71279999999999</v>
+        <v>-21.719</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.79099999999998</v>
+        <v>-21.75429999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.834399999999999</v>
+        <v>-8.8986</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.23419999999998</v>
+        <v>-20.22949999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.59389999999998</v>
+        <v>-20.35609999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -845,15 +845,15 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.140300000000004</v>
+        <v>-7.327700000000005</v>
       </c>
       <c r="E24" t="n">
-        <v>16.7253</v>
+        <v>16.97950000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.75369999999998</v>
+        <v>-21.7509</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -862,15 +862,15 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.437000000000004</v>
+        <v>-7.432100000000003</v>
       </c>
       <c r="E25" t="n">
-        <v>16.7727</v>
+        <v>16.70600000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.34149999999998</v>
+        <v>-21.31709999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.984400000000003</v>
+        <v>-8.922600000000003</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.90869999999997</v>
+        <v>-20.97439999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.616900000000003</v>
+        <v>-7.670000000000001</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.835300000000011</v>
+        <v>-8.819300000000002</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.322400000000002</v>
+        <v>-8.366999999999997</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.2703</v>
+        <v>-20.2839</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1137,7 +1137,7 @@
         <v>-8.720000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>16.40169999999999</v>
+        <v>16.23979999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.834500000000002</v>
+        <v>-8.752699999999999</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.159799999999999</v>
+        <v>-7.141699999999999</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.3234</v>
+        <v>16.3535</v>
       </c>
     </row>
     <row r="51">
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.637799999999999</v>
+        <v>-7.498900000000001</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.374100000000002</v>
+        <v>-7.512200000000003</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.83219999999998</v>
+        <v>-21.93589999999999</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1341,7 +1341,7 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>16.81310000000002</v>
+        <v>16.96410000000002</v>
       </c>
     </row>
     <row r="54">
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.917400000000001</v>
+        <v>-9.032600000000004</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,15 +1389,15 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.137499999999999</v>
+        <v>-7.8538</v>
       </c>
       <c r="E56" t="n">
-        <v>16.4872</v>
+        <v>16.63490000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.71840000000001</v>
+        <v>-23.08210000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1406,10 +1406,10 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.8072</v>
+        <v>-9.179800000000002</v>
       </c>
       <c r="E57" t="n">
-        <v>16.5667</v>
+        <v>16.6657</v>
       </c>
     </row>
     <row r="58">
@@ -1426,12 +1426,12 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.12990000000001</v>
+        <v>16.27640000000002</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.4778</v>
+        <v>-22.5903</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1457,7 +1457,7 @@
         <v>-13.33</v>
       </c>
       <c r="D60" t="n">
-        <v>-7.993999999999999</v>
+        <v>-7.910599999999996</v>
       </c>
       <c r="E60" t="n">
         <v>16.4</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.4793</v>
+        <v>16.52430000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.45340000000002</v>
+        <v>17.39730000000002</v>
       </c>
     </row>
     <row r="64">
@@ -1528,12 +1528,12 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.3642</v>
+        <v>17.3619</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.78369999999997</v>
+        <v>-21.81909999999999</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.61609999999999</v>
+        <v>-21.63269999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.37960000000001</v>
+        <v>17.33260000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1664,7 +1664,7 @@
         <v>-7.37</v>
       </c>
       <c r="E72" t="n">
-        <v>16.87680000000001</v>
+        <v>16.99770000000001</v>
       </c>
     </row>
     <row r="73">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.502500000000002</v>
+        <v>-7.574400000000002</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1695,7 +1695,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.682100000000004</v>
+        <v>-8.584300000000002</v>
       </c>
       <c r="E74" t="n">
         <v>16.1</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.2075</v>
+        <v>-20.4642</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.71059999999999</v>
+        <v>-21.72969999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.65030000000001</v>
+        <v>16.49710000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1950,10 +1950,10 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-7.118199999999997</v>
+        <v>-7.180199999999992</v>
       </c>
       <c r="E89" t="n">
-        <v>17.44150000000002</v>
+        <v>17.42620000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.916400000000003</v>
+        <v>-7.780300000000003</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.44940000000001</v>
+        <v>-21.41760000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-5.7248</v>
+        <v>-5.824000000000002</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.85819999999998</v>
+        <v>-21.07969999999997</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.3455</v>
+        <v>15.37820000000001</v>
       </c>
     </row>
     <row r="99">
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.86179999999999</v>
+        <v>-21.8933</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.79040000000002</v>
+        <v>16.56430000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.2549</v>
+        <v>16.19669999999999</v>
       </c>
     </row>
   </sheetData>
